--- a/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
+++ b/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\品力會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610CE788-CCEA-4447-B042-A8F835B6C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8B19CF-3B3D-4A14-B116-D4C67E8E839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Chiao, Fan</t>
   </si>
@@ -583,13 +583,49 @@
       </rPr>
       <t>喬凡</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/CSQ-qualiability/home/tree/main/%E4%BA%BA%E6%89%8D%E5%86%8D%E8%AA%8D%E8%AD%89/%E5%80%8B%E4%BA%BA%E7%94%B3%E8%AB%8B%E5%8F%8A%E8%81%AF%E5%90%88%E5%AF%A9%E6%9F%A5/%E5%BE%85%E5%AF%A9%E6%A1%88%E4%BB%B6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">⇐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">回傳
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Github</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -751,6 +787,13 @@
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -792,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1068,6 +1111,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1077,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1215,27 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1168,6 +1254,54 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,57 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1571,16 +1654,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
@@ -1594,13 +1677,13 @@
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -1617,10 +1700,10 @@
       <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>44694</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -1631,7 +1714,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="53" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1640,24 +1723,24 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="15" t="str">
         <f>IF(G16="","",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
         <v/>
@@ -1667,47 +1750,47 @@
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
@@ -1718,40 +1801,40 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="53" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
@@ -1760,57 +1843,74 @@
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="32">
         <v>44669</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="2:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="F4:G4"/>
@@ -1826,6 +1926,8 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
@@ -1850,8 +1952,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://github.com/CSQ-qualiability/home/blob/main/%E5%A7%94%E5%93%A1/%E5%96%AC%E5%87%A1/%E6%9C%AC%E5%AD%B8%E6%9C%83%E5%BB%BA%E7%BD%AE%E5%93%81%E8%B3%AA%E6%AA%A2%E9%A9%97%E5%B8%AB%E8%AA%8D%E8%AD%89%EF%BC%88CQI)%E4%BA%8B%E5%AE%9C%E6%8E%A2%E8%A8%8E1110515.pptx" xr:uid="{E1202E82-63F5-4230-ACD4-1794E14D7F76}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{3CC59F34-DB99-45EA-8374-0DAAB909C6BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
+++ b/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\品力會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8B19CF-3B3D-4A14-B116-D4C67E8E839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F3DEBE-ACAD-4B93-B300-EEBC3E06BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Chiao, Fan</t>
   </si>
@@ -619,6 +619,9 @@
       <t>Github</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過</t>
   </si>
 </sst>
 </file>
@@ -1218,6 +1221,78 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,78 +1327,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1677,13 +1680,13 @@
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -1700,10 +1703,10 @@
       <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="29">
         <v>44694</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -1714,7 +1717,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1723,24 +1726,24 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="15" t="str">
         <f>IF(G16="","",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
         <v/>
@@ -1750,47 +1753,47 @@
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="60"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="60"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
@@ -1801,40 +1804,40 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
@@ -1843,74 +1846,83 @@
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="56">
         <v>44669</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="53"/>
     </row>
     <row r="23" spans="2:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="F4:G4"/>
@@ -1926,13 +1938,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G16:G18">

--- a/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
+++ b/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\品力會\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F3DEBE-ACAD-4B93-B300-EEBC3E06BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2905F-234A-4760-9B63-38739AAE9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="審核" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="審查委員" localSheetId="0">OFFSET(審核!$I$3,1,,COUNTA(審核!$I$4:$I$11),)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -444,19 +447,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃信行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="標楷體"/>
@@ -480,19 +470,6 @@
         <charset val="136"/>
       </rPr>
       <t>品力會</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蔡祥智</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,19 +508,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳文魁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="標楷體"/>
@@ -590,45 +554,39 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">⇐ </t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">⇐ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="細明體"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">回傳
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Github</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通過</t>
+      <t>傳回網址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃信行</t>
+  </si>
+  <si>
+    <t>蔡祥智</t>
+  </si>
+  <si>
+    <t>陳文魁</t>
+  </si>
+  <si>
+    <t>審查委員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -654,13 +612,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF7030A0"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="標楷體"/>
@@ -794,13 +745,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="細明體"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,8 +788,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1136,6 +1093,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1145,189 +1147,201 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,16 +1671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
@@ -1675,49 +1689,58 @@
     <col min="8" max="16384" width="12.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="29">
+        <v>29</v>
+      </c>
+      <c r="F4" s="35">
         <v>44694</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="36"/>
+      <c r="I4" s="61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="I5" s="61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1726,76 +1749,84 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
+        <v>28</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
       <c r="C7" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="15" t="str">
         <f>IF(G16="","",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="54"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="54"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1803,126 +1834,111 @@
       <c r="F12" s="2"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39" t="s">
+    <row r="15" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="46"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="8" t="s">
+      <c r="D18" s="26">
+        <v>44669</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="59"/>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="56">
-        <v>44669</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>35</v>
+    <row r="21" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="53"/>
-    </row>
-    <row r="23" spans="2:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+    </row>
+    <row r="23" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="F4:G4"/>
@@ -1938,6 +1954,13 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G16:G18">
@@ -1950,14 +1973,17 @@
       <formula>$G7="未通過"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G19" xr:uid="{8E291DDE-B50A-4C8F-BABA-6CEB21E0B6C2}">
       <formula1>"通過,未通過"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F18" xr:uid="{8FEEF26B-4544-4DD9-A2B1-03A741F7AAAE}">
+      <formula1>審查委員</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" display="https://github.com/CSQ-qualiability/home/blob/main/%E5%A7%94%E5%93%A1/%E5%96%AC%E5%87%A1/%E6%9C%AC%E5%AD%B8%E6%9C%83%E5%BB%BA%E7%BD%AE%E5%93%81%E8%B3%AA%E6%AA%A2%E9%A9%97%E5%B8%AB%E8%AA%8D%E8%AD%89%EF%BC%88CQI)%E4%BA%8B%E5%AE%9C%E6%8E%A2%E8%A8%8E1110515.pptx" xr:uid="{E1202E82-63F5-4230-ACD4-1794E14D7F76}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{3CC59F34-DB99-45EA-8374-0DAAB909C6BD}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{D801A895-2932-4E45-B4BA-09F4357F1BDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
+++ b/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\品力會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2905F-234A-4760-9B63-38739AAE9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325409E-2038-419E-84F8-CE98C5EF3201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="審核" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">審核!$A$1:$H$20</definedName>
     <definedName name="審查委員" localSheetId="0">OFFSET(審核!$I$3,1,,COUNTA(審核!$I$4:$I$11),)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1223,6 +1224,108 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1240,108 +1343,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1671,36 +1672,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.75" style="1"/>
+    <col min="8" max="8" width="1.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -1709,7 +1714,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="12"/>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1720,11 +1725,11 @@
       <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>44694</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="I4" s="61" t="s">
+      <c r="G4" s="34"/>
+      <c r="I4" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1735,12 +1740,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1749,82 +1754,82 @@
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="15" t="str">
         <f>IF(G16="","",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
         <v/>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="54"/>
-      <c r="I8" s="62"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="52"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="54"/>
-      <c r="I9" s="62"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="I10" s="62"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="I11" s="63"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
@@ -1835,40 +1840,40 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
@@ -1877,52 +1882,52 @@
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="8"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="8"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="60">
         <v>44669</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="8"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -1930,15 +1935,22 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="F4:G4"/>
@@ -1954,13 +1966,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G16:G18">
@@ -1985,7 +1990,7 @@
     <hyperlink ref="B17" r:id="rId1" display="https://github.com/CSQ-qualiability/home/blob/main/%E5%A7%94%E5%93%A1/%E5%96%AC%E5%87%A1/%E6%9C%AC%E5%AD%B8%E6%9C%83%E5%BB%BA%E7%BD%AE%E5%93%81%E8%B3%AA%E6%AA%A2%E9%A9%97%E5%B8%AB%E8%AA%8D%E8%AD%89%EF%BC%88CQI)%E4%BA%8B%E5%AE%9C%E6%8E%A2%E8%A8%8E1110515.pptx" xr:uid="{E1202E82-63F5-4230-ACD4-1794E14D7F76}"/>
     <hyperlink ref="B21" r:id="rId2" xr:uid="{D801A895-2932-4E45-B4BA-09F4357F1BDD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
+++ b/人才再認證/個人申請及聯合審查/待審案件/品力會活動認證申請表_喬凡_0514.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\品力會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325409E-2038-419E-84F8-CE98C5EF3201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52035FA9-D965-4B0E-B5CC-1A3B644D3063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Chiao, Fan</t>
   </si>
@@ -1678,7 +1678,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1776,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="38"/>
       <c r="G7" s="15" t="str">
-        <f>IF(G16="","",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
+        <f>IF(COUNTA(G16:G18)&lt;3,"",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
         <v/>
       </c>
       <c r="I7" s="26"/>
@@ -1886,7 +1886,9 @@
         <v>23</v>
       </c>
       <c r="E16" s="59"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
